--- a/test/files/multiple_file_language_option_conversion/BFR5-Listing-v1-jef.xlsx
+++ b/test/files/multiple_file_language_option_conversion/BFR5-Listing-v1-jef.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="370">
   <si>
     <t>name</t>
   </si>
@@ -1003,21 +1003,164 @@
   <si>
     <t>003c. Commune, Village</t>
   </si>
+  <si>
+    <t>filter_list</t>
+  </si>
+  <si>
+    <t>level1_list</t>
+  </si>
+  <si>
+    <t>location_1a</t>
+  </si>
+  <si>
+    <t>Location 1a</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>GEOGRAPHIQUE 1a</t>
+  </si>
+  <si>
+    <t>location_1b</t>
+  </si>
+  <si>
+    <t>Location 1b</t>
+  </si>
+  <si>
+    <t>GEOGRAPHIQUE 1b</t>
+  </si>
+  <si>
+    <t>location_1c</t>
+  </si>
+  <si>
+    <t>Location 1c</t>
+  </si>
+  <si>
+    <t>GEOGRAPHIQUE 1c</t>
+  </si>
+  <si>
+    <t>location_1d</t>
+  </si>
+  <si>
+    <t>Location 1d</t>
+  </si>
+  <si>
+    <t>GEOGRAPHIQUE 1d</t>
+  </si>
+  <si>
+    <t>location_1e</t>
+  </si>
+  <si>
+    <t>Location 1e</t>
+  </si>
+  <si>
+    <t>GEOGRAPHIQUE 1e</t>
+  </si>
+  <si>
+    <t>level2_list</t>
+  </si>
+  <si>
+    <t>location_2a</t>
+  </si>
+  <si>
+    <t>location_2b</t>
+  </si>
+  <si>
+    <t>location_2c</t>
+  </si>
+  <si>
+    <t>location_2d</t>
+  </si>
+  <si>
+    <t>location_2e</t>
+  </si>
+  <si>
+    <t>level3_list</t>
+  </si>
+  <si>
+    <t>location_3a</t>
+  </si>
+  <si>
+    <t>location_3b</t>
+  </si>
+  <si>
+    <t>location_3c</t>
+  </si>
+  <si>
+    <t>location_3d</t>
+  </si>
+  <si>
+    <t>location_3e</t>
+  </si>
+  <si>
+    <t>EA_list</t>
+  </si>
+  <si>
+    <t>EA_location_1</t>
+  </si>
+  <si>
+    <t>ZD</t>
+  </si>
+  <si>
+    <t>EA_location_2</t>
+  </si>
+  <si>
+    <t>EA_location_3</t>
+  </si>
+  <si>
+    <t>EA_location_4</t>
+  </si>
+  <si>
+    <t>EA_location_5</t>
+  </si>
+  <si>
+    <t>facility_1</t>
+  </si>
+  <si>
+    <t>&lt;Facility Name&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Nom de l'établissement&gt;</t>
+  </si>
+  <si>
+    <t>facility_1_other</t>
+  </si>
+  <si>
+    <t>Autre</t>
+  </si>
+  <si>
+    <t>facility_2</t>
+  </si>
+  <si>
+    <t>facility_2_other</t>
+  </si>
+  <si>
+    <t>facility_3</t>
+  </si>
+  <si>
+    <t>facility_3_other</t>
+  </si>
+  <si>
+    <t>facility_4</t>
+  </si>
+  <si>
+    <t>facility_4_other</t>
+  </si>
+  <si>
+    <t>facility_5</t>
+  </si>
+  <si>
+    <t>facility_5_other</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1121,9 +1264,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1211,58 +1356,58 @@
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1272,7 +1417,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1281,38 +1426,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="34"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="34"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1321,7 +1466,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1331,29 +1476,29 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1362,16 +1507,14 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="34" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="53">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3235,7 +3378,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="A1:E273"/>
+      <selection pane="bottomRight" sqref="A1:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3248,41 +3391,534 @@
     <col min="6" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:5">
-      <c r="D1" s="45"/>
-      <c r="E1" s="46"/>
-    </row>
-    <row r="2" spans="4:5" customFormat="1" ht="14"/>
-    <row r="3" spans="4:5" customFormat="1" ht="14"/>
-    <row r="4" spans="4:5" customFormat="1" ht="14"/>
-    <row r="5" spans="4:5" customFormat="1" ht="14"/>
-    <row r="6" spans="4:5" customFormat="1" ht="14"/>
-    <row r="7" spans="4:5" customFormat="1" ht="14"/>
-    <row r="8" spans="4:5" customFormat="1" ht="14"/>
-    <row r="9" spans="4:5" customFormat="1" ht="14"/>
-    <row r="10" spans="4:5" customFormat="1" ht="14"/>
-    <row r="11" spans="4:5" customFormat="1" ht="14"/>
-    <row r="12" spans="4:5" customFormat="1" ht="14"/>
-    <row r="13" spans="4:5" customFormat="1" ht="14"/>
-    <row r="14" spans="4:5" customFormat="1" ht="14"/>
-    <row r="15" spans="4:5" customFormat="1" ht="14"/>
-    <row r="16" spans="4:5" customFormat="1" ht="14"/>
-    <row r="17" customFormat="1" ht="14"/>
-    <row r="18" customFormat="1" ht="14"/>
-    <row r="19" customFormat="1" ht="14"/>
-    <row r="20" customFormat="1" ht="14"/>
-    <row r="21" customFormat="1" ht="14"/>
-    <row r="22" customFormat="1" ht="14"/>
-    <row r="23" customFormat="1" ht="14"/>
-    <row r="24" customFormat="1" ht="14"/>
-    <row r="25" customFormat="1" ht="14"/>
-    <row r="26" customFormat="1" ht="14"/>
-    <row r="27" customFormat="1" ht="14"/>
-    <row r="28" customFormat="1" ht="14"/>
-    <row r="29" customFormat="1" ht="14"/>
-    <row r="30" customFormat="1" ht="14"/>
-    <row r="31" customFormat="1" ht="14"/>
-    <row r="32" customFormat="1" ht="14"/>
+    <row r="1" spans="1:5">
+      <c r="A1" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" customFormat="1">
+      <c r="A2" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>322</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>323</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>324</v>
+      </c>
+      <c r="E2" s="46" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" customFormat="1">
+      <c r="A3" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>326</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>327</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>324</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" customFormat="1">
+      <c r="A4" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>329</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>330</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>324</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" customFormat="1">
+      <c r="A5" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>332</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>333</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>324</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" customFormat="1">
+      <c r="A6" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>335</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>336</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>324</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" customFormat="1">
+      <c r="A7" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>339</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>323</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>322</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" customFormat="1">
+      <c r="A8" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>340</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>327</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>326</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" customFormat="1">
+      <c r="A9" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>341</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>330</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>329</v>
+      </c>
+      <c r="E9" s="46" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" customFormat="1">
+      <c r="A10" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>342</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>333</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>332</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" customFormat="1">
+      <c r="A11" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>343</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>336</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>335</v>
+      </c>
+      <c r="E11" s="46" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" customFormat="1">
+      <c r="A12" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>345</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>323</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>339</v>
+      </c>
+      <c r="E12" s="46" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" customFormat="1">
+      <c r="A13" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>346</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>327</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>340</v>
+      </c>
+      <c r="E13" s="46" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" customFormat="1">
+      <c r="A14" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="B14" s="46" t="s">
+        <v>347</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>330</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>341</v>
+      </c>
+      <c r="E14" s="46" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" customFormat="1">
+      <c r="A15" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="B15" s="46" t="s">
+        <v>348</v>
+      </c>
+      <c r="C15" s="46" t="s">
+        <v>333</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>342</v>
+      </c>
+      <c r="E15" s="46" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" customFormat="1">
+      <c r="A16" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="B16" s="46" t="s">
+        <v>349</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>336</v>
+      </c>
+      <c r="D16" s="46" t="s">
+        <v>343</v>
+      </c>
+      <c r="E16" s="46" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" customFormat="1">
+      <c r="A17" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="46" t="s">
+        <v>345</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" customFormat="1">
+      <c r="A18" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>346</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" customFormat="1">
+      <c r="A19" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>347</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" customFormat="1">
+      <c r="A20" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>348</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" customFormat="1">
+      <c r="A21" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>349</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" customFormat="1" ht="14">
+      <c r="A22" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" customFormat="1" ht="14">
+      <c r="A23" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" customFormat="1" ht="14">
+      <c r="A24" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" customFormat="1" ht="14">
+      <c r="A25" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" customFormat="1" ht="14">
+      <c r="A26" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" customFormat="1" ht="14">
+      <c r="A27" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" customFormat="1" ht="14">
+      <c r="A28" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" customFormat="1" ht="14">
+      <c r="A29" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" customFormat="1" ht="14">
+      <c r="A30" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" customFormat="1" ht="14">
+      <c r="A31" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" customFormat="1" ht="14"/>
     <row r="33" customFormat="1" ht="14"/>
     <row r="34" customFormat="1" ht="14"/>
     <row r="35" customFormat="1" ht="14"/>
